--- a/iccv transformer.xlsx
+++ b/iccv transformer.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zelinzhao/Desktop/zhihu/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zelinzhao/PycharmProjects/classified-transformer-papers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A51FD6-159F-934B-9EEC-D8F9B2FD3339}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E77575-FBFA-2E49-B673-BCB9244FCB70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="680" windowWidth="28040" windowHeight="16040" xr2:uid="{69FB5CD0-CEC5-0B47-935A-248CA5BE52FF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{69FB5CD0-CEC5-0B47-935A-248CA5BE52FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$E$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$E$28</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="119">
   <si>
     <t>Title</t>
   </si>
@@ -222,9 +222,6 @@
     <t>hierarchical transformer; shifted windows</t>
   </si>
   <si>
-    <t>ICCV transformer by 电光幻影炼金术</t>
-  </si>
-  <si>
     <t>SnowflakeNet: Point Cloud Completion by Snowflake Point Deconvolution with Skip-Transformer</t>
   </si>
   <si>
@@ -324,9 +321,6 @@
     <t>using original image scale; add scale embeddings</t>
   </si>
   <si>
-    <t>emerging semantic sementation of an image; excellent classifiers. DINO</t>
-  </si>
-  <si>
     <t>visual tracking</t>
   </si>
   <si>
@@ -364,6 +358,33 @@
   </si>
   <si>
     <t>only meta-learn the classification part</t>
+  </si>
+  <si>
+    <t>ICCV transformer papers by 电光幻影炼金术</t>
+  </si>
+  <si>
+    <t>emerging semantic segmentation of an image; excellent classifiers. DINO</t>
+  </si>
+  <si>
+    <t>Transformer-Based Attention Networks for Continuous Pixel-Wise Prediction</t>
+  </si>
+  <si>
+    <t>conv+attention; attention based on gates.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2103.12091</t>
+  </si>
+  <si>
+    <t>https://github.com/ygjwd12345/TransDepth</t>
+  </si>
+  <si>
+    <t>Point Transformer</t>
+  </si>
+  <si>
+    <t>construct self-supervised networks for 3d tasks; vector attention</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2012.09164</t>
   </si>
 </sst>
 </file>
@@ -379,26 +400,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -418,19 +435,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -743,497 +759,538 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CFC167-9D58-D846-9BF7-06BA07E8997F}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="28.33203125" style="2"/>
+    <col min="1" max="1" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="28.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="C4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="D28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E29" s="2" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:E27" xr:uid="{65D760CF-08DB-A749-8A79-7B12A698DA1C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E27">
-      <sortCondition ref="A2:A27"/>
+  <autoFilter ref="A2:E28" xr:uid="{65D760CF-08DB-A749-8A79-7B12A698DA1C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E29">
+      <sortCondition ref="A2:A29"/>
     </sortState>
   </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D14" r:id="rId1" xr:uid="{A6C77618-48D3-F240-980B-4ECEED94F659}"/>
-    <hyperlink ref="E14" r:id="rId2" xr:uid="{52A9BB14-8534-3C43-8FE7-066AAB88DE61}"/>
-    <hyperlink ref="D24" r:id="rId3" xr:uid="{255B65BD-83C4-F143-89F1-100BEBE1D3F7}"/>
-    <hyperlink ref="D17" r:id="rId4" xr:uid="{AF2A9DBE-B819-B041-9D72-88E890284BE6}"/>
-    <hyperlink ref="E17" r:id="rId5" xr:uid="{03EC8119-B33F-4C48-9B4D-862B707FC979}"/>
-    <hyperlink ref="D6" r:id="rId6" xr:uid="{43E31DBB-522B-E343-814B-337B4B4D8A15}"/>
-    <hyperlink ref="D22" r:id="rId7" xr:uid="{4E1980C0-51B1-2343-909D-CC4D3DEA6ABD}"/>
-    <hyperlink ref="D15" r:id="rId8" xr:uid="{E67207CD-E253-2A48-8578-825C71067F4E}"/>
-    <hyperlink ref="E15" r:id="rId9" xr:uid="{9C63792C-A98C-9E48-B712-61E08D6B619C}"/>
-    <hyperlink ref="D25" r:id="rId10" xr:uid="{6BD0BC74-63AE-0D48-BE78-AEF5448BEC2F}"/>
-    <hyperlink ref="E25" r:id="rId11" xr:uid="{8D19F0E9-43C0-2240-8FE2-8D77FF125139}"/>
-    <hyperlink ref="D27" r:id="rId12" xr:uid="{2D6C7817-1E2F-E74C-B847-8C380674D71F}"/>
-    <hyperlink ref="E27" r:id="rId13" xr:uid="{D2D245F4-62ED-F345-B1C6-A6FC22D04259}"/>
-    <hyperlink ref="D18" r:id="rId14" xr:uid="{F29B49E0-7212-3A49-BAC4-C07524D9D154}"/>
-    <hyperlink ref="E18" r:id="rId15" xr:uid="{1EFC5427-B6F6-9E4D-B4F9-0B0EBA78A90D}"/>
-    <hyperlink ref="D8" r:id="rId16" xr:uid="{97AFAF8C-F294-3446-AD35-72BAC74A936A}"/>
-    <hyperlink ref="E8" r:id="rId17" xr:uid="{D3A09CF9-99E6-3F47-8A68-D3E0C18C7A89}"/>
-    <hyperlink ref="D9" r:id="rId18" xr:uid="{47A0F50D-8F4A-224A-8C33-55D356DBEF28}"/>
-    <hyperlink ref="E9" r:id="rId19" xr:uid="{F7E7442B-AA99-544C-8C42-129FC80C4DAC}"/>
-    <hyperlink ref="D7" r:id="rId20" xr:uid="{4FC76DD1-A899-F044-9988-86608E0FFA31}"/>
-    <hyperlink ref="D10" r:id="rId21" display="https://arxiv.org/abs/2105.03889" xr:uid="{20DF7020-8E5F-0A46-8A26-D1C0C44D96F4}"/>
-    <hyperlink ref="E10" r:id="rId22" display="https://github.com/pengzhiliang/Conformer" xr:uid="{96ACBB72-B34A-444B-8751-47CA903A090D}"/>
-    <hyperlink ref="D20" r:id="rId23" display="https://arxiv.org/abs/2108.03032" xr:uid="{410B3E3D-7493-AA49-B524-7925F2219369}"/>
-    <hyperlink ref="E20" r:id="rId24" display="https://github.com/zhiheLu/CWT-for-FSS" xr:uid="{6CF46BA6-FBF1-3747-881C-2C94BC59F733}"/>
-    <hyperlink ref="D26" r:id="rId25" display="https://arxiv.org/abs/2108.03798" xr:uid="{73E225D3-5CFE-3C48-8BF0-AF8D7C295ADD}"/>
-    <hyperlink ref="E26" r:id="rId26" display="https://github.com/wzmsltw/PaintTransformer" xr:uid="{90709E8A-2BD2-824F-8547-C7976A05D770}"/>
-    <hyperlink ref="D19" r:id="rId27" display="https://arxiv.org/abs/2108.06152" xr:uid="{D6A7E0CD-D282-794A-8F25-4E26EBAD5FDB}"/>
-    <hyperlink ref="E19" r:id="rId28" display="https://github.com/Atten4Vis/ConditionalDETR" xr:uid="{DDBE6F6C-8F26-6F42-AB6A-0788E5EA9268}"/>
-    <hyperlink ref="D21" r:id="rId29" display="https://arxiv.org/abs/2108.05997" xr:uid="{4BBD7CA0-A2D3-5846-B513-F3E1A7EFC77E}"/>
-    <hyperlink ref="E21" r:id="rId30" display="https://github.com/google-research/google-research/tree/master/musiq" xr:uid="{35DF794E-55E9-CF4E-AFDD-F70D0EDD345E}"/>
-    <hyperlink ref="D23" r:id="rId31" display="https://arxiv.org/abs/2108.06747" xr:uid="{3B931061-085A-CE43-B32D-D39CCC62069B}"/>
-    <hyperlink ref="E23" r:id="rId32" display="https://github.com/easton-cau/SOTR" xr:uid="{817D4DFE-3D23-634A-88C1-BBDC406A752E}"/>
+    <hyperlink ref="D16" r:id="rId1" xr:uid="{A6C77618-48D3-F240-980B-4ECEED94F659}"/>
+    <hyperlink ref="E16" r:id="rId2" xr:uid="{52A9BB14-8534-3C43-8FE7-066AAB88DE61}"/>
+    <hyperlink ref="D26" r:id="rId3" xr:uid="{255B65BD-83C4-F143-89F1-100BEBE1D3F7}"/>
+    <hyperlink ref="D19" r:id="rId4" xr:uid="{AF2A9DBE-B819-B041-9D72-88E890284BE6}"/>
+    <hyperlink ref="E19" r:id="rId5" xr:uid="{03EC8119-B33F-4C48-9B4D-862B707FC979}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{43E31DBB-522B-E343-814B-337B4B4D8A15}"/>
+    <hyperlink ref="D24" r:id="rId7" xr:uid="{4E1980C0-51B1-2343-909D-CC4D3DEA6ABD}"/>
+    <hyperlink ref="D17" r:id="rId8" xr:uid="{E67207CD-E253-2A48-8578-825C71067F4E}"/>
+    <hyperlink ref="E17" r:id="rId9" xr:uid="{9C63792C-A98C-9E48-B712-61E08D6B619C}"/>
+    <hyperlink ref="D27" r:id="rId10" xr:uid="{6BD0BC74-63AE-0D48-BE78-AEF5448BEC2F}"/>
+    <hyperlink ref="E27" r:id="rId11" xr:uid="{8D19F0E9-43C0-2240-8FE2-8D77FF125139}"/>
+    <hyperlink ref="D29" r:id="rId12" xr:uid="{2D6C7817-1E2F-E74C-B847-8C380674D71F}"/>
+    <hyperlink ref="E29" r:id="rId13" xr:uid="{D2D245F4-62ED-F345-B1C6-A6FC22D04259}"/>
+    <hyperlink ref="D20" r:id="rId14" xr:uid="{F29B49E0-7212-3A49-BAC4-C07524D9D154}"/>
+    <hyperlink ref="E20" r:id="rId15" xr:uid="{1EFC5427-B6F6-9E4D-B4F9-0B0EBA78A90D}"/>
+    <hyperlink ref="D10" r:id="rId16" xr:uid="{97AFAF8C-F294-3446-AD35-72BAC74A936A}"/>
+    <hyperlink ref="E10" r:id="rId17" xr:uid="{D3A09CF9-99E6-3F47-8A68-D3E0C18C7A89}"/>
+    <hyperlink ref="D11" r:id="rId18" xr:uid="{47A0F50D-8F4A-224A-8C33-55D356DBEF28}"/>
+    <hyperlink ref="E11" r:id="rId19" xr:uid="{F7E7442B-AA99-544C-8C42-129FC80C4DAC}"/>
+    <hyperlink ref="D9" r:id="rId20" xr:uid="{4FC76DD1-A899-F044-9988-86608E0FFA31}"/>
+    <hyperlink ref="D12" r:id="rId21" display="https://arxiv.org/abs/2105.03889" xr:uid="{20DF7020-8E5F-0A46-8A26-D1C0C44D96F4}"/>
+    <hyperlink ref="E12" r:id="rId22" display="https://github.com/pengzhiliang/Conformer" xr:uid="{96ACBB72-B34A-444B-8751-47CA903A090D}"/>
+    <hyperlink ref="D22" r:id="rId23" display="https://arxiv.org/abs/2108.03032" xr:uid="{410B3E3D-7493-AA49-B524-7925F2219369}"/>
+    <hyperlink ref="E22" r:id="rId24" display="https://github.com/zhiheLu/CWT-for-FSS" xr:uid="{6CF46BA6-FBF1-3747-881C-2C94BC59F733}"/>
+    <hyperlink ref="D28" r:id="rId25" display="https://arxiv.org/abs/2108.03798" xr:uid="{73E225D3-5CFE-3C48-8BF0-AF8D7C295ADD}"/>
+    <hyperlink ref="E28" r:id="rId26" display="https://github.com/wzmsltw/PaintTransformer" xr:uid="{90709E8A-2BD2-824F-8547-C7976A05D770}"/>
+    <hyperlink ref="D21" r:id="rId27" display="https://arxiv.org/abs/2108.06152" xr:uid="{D6A7E0CD-D282-794A-8F25-4E26EBAD5FDB}"/>
+    <hyperlink ref="E21" r:id="rId28" display="https://github.com/Atten4Vis/ConditionalDETR" xr:uid="{DDBE6F6C-8F26-6F42-AB6A-0788E5EA9268}"/>
+    <hyperlink ref="D23" r:id="rId29" display="https://arxiv.org/abs/2108.05997" xr:uid="{4BBD7CA0-A2D3-5846-B513-F3E1A7EFC77E}"/>
+    <hyperlink ref="E23" r:id="rId30" display="https://github.com/google-research/google-research/tree/master/musiq" xr:uid="{35DF794E-55E9-CF4E-AFDD-F70D0EDD345E}"/>
+    <hyperlink ref="D25" r:id="rId31" display="https://arxiv.org/abs/2108.06747" xr:uid="{3B931061-085A-CE43-B32D-D39CCC62069B}"/>
+    <hyperlink ref="E25" r:id="rId32" display="https://github.com/easton-cau/SOTR" xr:uid="{817D4DFE-3D23-634A-88C1-BBDC406A752E}"/>
     <hyperlink ref="D3" r:id="rId33" display="https://arxiv.org/abs/2108.08839" xr:uid="{416C8CF5-39D3-B348-B0A0-D46D6BF2380B}"/>
     <hyperlink ref="E3" r:id="rId34" display="https://github.com/yuxumin/PoinTr" xr:uid="{229A8FA0-A289-364E-B21F-81ECE1DB66C9}"/>
     <hyperlink ref="D4" r:id="rId35" xr:uid="{9159B0B5-44D6-D446-B685-7C93D2C4C5C9}"/>
-    <hyperlink ref="D16" r:id="rId36" xr:uid="{D8969E3F-5ED9-BB48-9B8B-71A3F2C651DB}"/>
-    <hyperlink ref="D13" r:id="rId37" xr:uid="{DEA51CC5-49B3-3A46-9237-E190AC74CAF9}"/>
-    <hyperlink ref="D12" r:id="rId38" xr:uid="{E13A5D94-2859-D348-93A7-D8FA4D004BB4}"/>
-    <hyperlink ref="E12" r:id="rId39" xr:uid="{6E40C2F5-9B90-2945-AAE3-C02A1E82CD2E}"/>
+    <hyperlink ref="D18" r:id="rId36" xr:uid="{D8969E3F-5ED9-BB48-9B8B-71A3F2C651DB}"/>
+    <hyperlink ref="D15" r:id="rId37" xr:uid="{DEA51CC5-49B3-3A46-9237-E190AC74CAF9}"/>
+    <hyperlink ref="D14" r:id="rId38" xr:uid="{E13A5D94-2859-D348-93A7-D8FA4D004BB4}"/>
+    <hyperlink ref="E14" r:id="rId39" xr:uid="{6E40C2F5-9B90-2945-AAE3-C02A1E82CD2E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
